--- a/data/trans_dic/P36$pan-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P36$pan-Estudios-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7377869193216916</v>
+        <v>0.7377355191260938</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7680365595198255</v>
+        <v>0.7667886537069757</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8066344895409522</v>
+        <v>0.8091457327470307</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.777485765728389</v>
+        <v>0.7808661942691234</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.8288764530827347</v>
+        <v>0.8283355284149855</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.8623754089373368</v>
+        <v>0.8629116789336185</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.7677399492996382</v>
+        <v>0.7673514636126532</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.8094805233955217</v>
+        <v>0.8100518929645372</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.8456651057080677</v>
+        <v>0.8475340577513416</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7895402764911316</v>
+        <v>0.7895214300366473</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8204627857161205</v>
+        <v>0.8230183461473574</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.863365643921106</v>
+        <v>0.8626768910894896</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.822164940784293</v>
+        <v>0.8222639289001283</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.8675820838407753</v>
+        <v>0.867360834653221</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.9032759461112527</v>
+        <v>0.9033968197872632</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.8013115708700767</v>
+        <v>0.800917995555074</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.8412745175720974</v>
+        <v>0.8426497727584983</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.8790446950599693</v>
+        <v>0.8795560578665014</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.744946664892024</v>
+        <v>0.7449206493241844</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7844812394185265</v>
+        <v>0.7843447993033411</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8196015535898988</v>
+        <v>0.8189947159395022</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.7565890650454489</v>
+        <v>0.7536436289604853</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.7937272762781282</v>
+        <v>0.7991724602706205</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.8476848938716813</v>
+        <v>0.8483066887406044</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.7557791229825174</v>
+        <v>0.7561524169626324</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.7961729337011726</v>
+        <v>0.7968953237270859</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.8370605836986437</v>
+        <v>0.8375725807211244</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7854157656773598</v>
+        <v>0.7863313641471161</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8214101874793036</v>
+        <v>0.8196830762043691</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8518236165740247</v>
+        <v>0.8530275446227471</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.7967598410428812</v>
+        <v>0.7951361665248847</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8345474773834372</v>
+        <v>0.8365547403697298</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.8783026218603359</v>
+        <v>0.8790753187691867</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.7857444661295325</v>
+        <v>0.7846836972686073</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.8215934645803364</v>
+        <v>0.8234519822117147</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.8600344832805568</v>
+        <v>0.8610776593363677</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7204026460082527</v>
+        <v>0.7146078461253917</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7703589031517059</v>
+        <v>0.7702630559953648</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8510904365721762</v>
+        <v>0.8561252261031488</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.7026440881720631</v>
+        <v>0.7026296975850219</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.7722538329958176</v>
+        <v>0.7805541118787077</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.8825328179825649</v>
+        <v>0.8823278778760323</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7209033934777972</v>
+        <v>0.7247756157693537</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.786732340497682</v>
+        <v>0.7848378165583483</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.8778775061718276</v>
+        <v>0.8794205239362634</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7944386524682169</v>
+        <v>0.7944307706931614</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8451430530542908</v>
+        <v>0.8469041191938085</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9132463708313561</v>
+        <v>0.9145608074749375</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.7858748623219545</v>
+        <v>0.7870639686756056</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8550611172347735</v>
+        <v>0.8564573334582991</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.9317795155115358</v>
+        <v>0.9297709583351405</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.7790751368739578</v>
+        <v>0.7806288948410032</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.8395858456554836</v>
+        <v>0.8402139850665339</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.9150143115946893</v>
+        <v>0.9180773528438678</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7487376326431997</v>
+        <v>0.7496460589564471</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7873152052484819</v>
+        <v>0.7873812037699975</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8315905020730088</v>
+        <v>0.832447441478926</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.7669750086266356</v>
+        <v>0.7672109573682828</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8166356809526791</v>
+        <v>0.8146973092546635</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.8648481333026687</v>
+        <v>0.8651468203320727</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.7630220550640877</v>
+        <v>0.7626273904366732</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.8057578439372903</v>
+        <v>0.8057758972519631</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.8528312840400987</v>
+        <v>0.8519268665417241</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7793740457275549</v>
+        <v>0.77931317522743</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.816332896542487</v>
+        <v>0.8157819129016423</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8569803467999005</v>
+        <v>0.8566754162436202</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.7949332181658507</v>
+        <v>0.795292612052128</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.8429139106077361</v>
+        <v>0.8411685094109436</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.8870545635713043</v>
+        <v>0.8873201996422585</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.7836579363485385</v>
+        <v>0.7825570824425695</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.8247265651459116</v>
+        <v>0.8251932898141968</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.8695326273497834</v>
+        <v>0.8688825564002862</v>
       </c>
     </row>
     <row r="16">
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>758258</v>
+        <v>758205</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>747025</v>
+        <v>745812</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>607042</v>
+        <v>608932</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1020946</v>
+        <v>1025385</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1107183</v>
+        <v>1106461</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>856741</v>
+        <v>857273</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1797191</v>
+        <v>1796282</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1868611</v>
+        <v>1869929</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1476555</v>
+        <v>1479818</v>
       </c>
     </row>
     <row r="7">
@@ -1324,31 +1324,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>811448</v>
+        <v>811428</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>798017</v>
+        <v>800503</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>649736</v>
+        <v>649218</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>1079616</v>
+        <v>1079746</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>1158885</v>
+        <v>1158589</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>897374</v>
+        <v>897494</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>1875778</v>
+        <v>1874857</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>1942004</v>
+        <v>1945179</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1534837</v>
+        <v>1535730</v>
       </c>
     </row>
     <row r="8">
@@ -1433,31 +1433,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1260770</v>
+        <v>1260726</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1538443</v>
+        <v>1538175</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1700017</v>
+        <v>1698758</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1199666</v>
+        <v>1194995</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1392890</v>
+        <v>1402445</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1683707</v>
+        <v>1684942</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>2477485</v>
+        <v>2478708</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>2958553</v>
+        <v>2961238</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>3398835</v>
+        <v>3400914</v>
       </c>
     </row>
     <row r="11">
@@ -1468,31 +1468,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>1329261</v>
+        <v>1330811</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>1610864</v>
+        <v>1607477</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1766852</v>
+        <v>1769349</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>1263362</v>
+        <v>1260787</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>1464524</v>
+        <v>1468046</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>1744522</v>
+        <v>1746056</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>2575713</v>
+        <v>2572236</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>3053015</v>
+        <v>3059921</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>3492119</v>
+        <v>3496355</v>
       </c>
     </row>
     <row r="12">
@@ -1577,31 +1577,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>395961</v>
+        <v>392776</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>369881</v>
+        <v>369835</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>465449</v>
+        <v>468203</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>334748</v>
+        <v>334741</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>353283</v>
+        <v>357080</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>484634</v>
+        <v>484522</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>739684</v>
+        <v>743657</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>737649</v>
+        <v>735873</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>962177</v>
+        <v>963869</v>
       </c>
     </row>
     <row r="15">
@@ -1612,31 +1612,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>436654</v>
+        <v>436650</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>405788</v>
+        <v>406633</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>499442</v>
+        <v>500161</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>374400</v>
+        <v>374967</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>391165</v>
+        <v>391804</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>511677</v>
+        <v>510574</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>799371</v>
+        <v>800965</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>787205</v>
+        <v>787794</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1002880</v>
+        <v>1006238</v>
       </c>
     </row>
     <row r="16">
@@ -1721,31 +1721,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2448234</v>
+        <v>2451205</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2687800</v>
+        <v>2688025</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2805493</v>
+        <v>2808384</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2588674</v>
+        <v>2589470</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2897511</v>
+        <v>2890633</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>3051918</v>
+        <v>3052972</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>5070274</v>
+        <v>5067651</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>5609675</v>
+        <v>5609801</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>5886665</v>
+        <v>5880422</v>
       </c>
     </row>
     <row r="19">
@@ -1756,31 +1756,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>2548410</v>
+        <v>2548211</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>2786863</v>
+        <v>2784982</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>2891149</v>
+        <v>2890120</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>2683038</v>
+        <v>2684251</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>2990749</v>
+        <v>2984556</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>3130281</v>
+        <v>3131218</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>5207399</v>
+        <v>5200084</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>5741735</v>
+        <v>5744984</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>6001945</v>
+        <v>5997458</v>
       </c>
     </row>
     <row r="20">
